--- a/8-leading-and-lagging-variables/8-leading-lagging-variables-solution.xlsx
+++ b/8-leading-and-lagging-variables/8-leading-lagging-variables-solution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\8-leading-and-lagging-variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBEC2C-FD75-44C1-8F67-63142E90EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033774E-BF74-4DA7-B774-8B5DB34DF8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,247 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="21">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="21">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -49,6 +286,26 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>sales_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Sales_Lag_1'] = sales_df['Sales'].shift(1)
+sales_df['Sales_Lead_1'] = sales_df['Sales'].shift(-1)
+pd.concat([sales_df.head(10), sales_df.tail(10)])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Sales_Lag_2'] = sales_df['Sales'].shift(2)
+sales_df['Sales_Lead_2'] = sales_df['Sales'].shift(-2)
+pd.concat([sales_df.head(10), sales_df.tail(10)])
+pd.concat([sales_df.head(10), sales_df.tail(10)])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Sales_Percentage_Change'] = sales_df['Sales'].pct_change() * 100
+sales_df[['Sales', 'Sales_Percentage_Change']].head()</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -119,6 +376,284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Date</v>
+    <v t="s">Sales</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>52.48</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>49.34</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>53.31</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>57.72</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>48.97</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>361</v>
+    <v t="r">5</v>
+    <v>70.03</v>
+    <v>362</v>
+    <v t="r">6</v>
+    <v>61.85</v>
+    <v>363</v>
+    <v t="r">7</v>
+    <v>64.44</v>
+    <v>364</v>
+    <v t="r">8</v>
+    <v>65.92</v>
+    <v>365</v>
+    <v t="r">9</v>
+    <v>60.49</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="23">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45288</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45289</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45290</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45291</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45292</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Date  Sales
+0   2023-01-01  52.48
+1   2023-01-02  49.34
+2   2023-01-03  53.31
+3   2023-01-04  57.72
+4   2023-01-05  48.97
+..         ...    ...
+361 2023-12-28  70.03
+362 2023-12-29  61.85
+363 2023-12-30  64.44
+364 2023-12-31  65.92
+365 2024-0...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <fb>44932</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44933</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44934</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44935</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44936</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45283</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45284</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45285</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45286</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45287</fb>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="4">
+    <spb s="0">
+      <v>366</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,26 +1014,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D1" t="e" cm="1" vm="1">
+        <f t="array" ref="D1">_xlfn._xlws.PY(0,1,daily_sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -506,175 +1046,491 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
       <c r="B3">
         <v>49.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:H23">_xlfn._xlws.PY(1,0)</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>Date</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Sales_Lag_1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Sales_Lead_1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
       <c r="B4">
         <v>53.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="F4">
+        <v>52.48</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
       <c r="B5">
         <v>57.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="F5">
+        <v>49.34</v>
+      </c>
+      <c r="G5">
+        <v>52.48</v>
+      </c>
+      <c r="H5">
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
       <c r="B6">
         <v>48.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="F6">
+        <v>53.31</v>
+      </c>
+      <c r="G6">
+        <v>49.34</v>
+      </c>
+      <c r="H6">
+        <v>57.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
       <c r="B7">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="F7">
+        <v>57.72</v>
+      </c>
+      <c r="G7">
+        <v>53.31</v>
+      </c>
+      <c r="H7">
+        <v>48.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
       <c r="B8">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="F8">
+        <v>48.97</v>
+      </c>
+      <c r="G8">
+        <v>57.72</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
       <c r="B9">
         <v>54.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" vm="7">
+        <v>44932</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>48.97</v>
+      </c>
+      <c r="H9">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
       <c r="B10">
         <v>47.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" vm="8">
+        <v>44933</v>
+      </c>
+      <c r="F10">
+        <v>58.1</v>
+      </c>
+      <c r="G10">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
       <c r="B11">
         <v>53.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" vm="9">
+        <v>44934</v>
+      </c>
+      <c r="F11">
+        <v>54.08</v>
+      </c>
+      <c r="G11">
+        <v>58.1</v>
+      </c>
+      <c r="H11">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
       <c r="B12">
         <v>48.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" vm="10">
+        <v>44935</v>
+      </c>
+      <c r="F12">
+        <v>47.93</v>
+      </c>
+      <c r="G12">
+        <v>54.08</v>
+      </c>
+      <c r="H12">
+        <v>53.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
       <c r="B13">
         <v>48.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" vm="11">
+        <v>44936</v>
+      </c>
+      <c r="F13">
+        <v>53.02</v>
+      </c>
+      <c r="G13">
+        <v>47.93</v>
+      </c>
+      <c r="H13">
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
       <c r="B14">
         <v>51.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <v>356</v>
+      </c>
+      <c r="E14" vm="12">
+        <v>45283</v>
+      </c>
+      <c r="F14">
+        <v>62.1</v>
+      </c>
+      <c r="G14">
+        <v>57.14</v>
+      </c>
+      <c r="H14">
+        <v>60.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
       <c r="B15">
         <v>40.880000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D15">
+        <v>357</v>
+      </c>
+      <c r="E15" vm="13">
+        <v>45284</v>
+      </c>
+      <c r="F15">
+        <v>60.78</v>
+      </c>
+      <c r="G15">
+        <v>62.1</v>
+      </c>
+      <c r="H15">
+        <v>63.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
       <c r="B16">
         <v>41.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>358</v>
+      </c>
+      <c r="E16" vm="14">
+        <v>45285</v>
+      </c>
+      <c r="F16">
+        <v>63.87</v>
+      </c>
+      <c r="G16">
+        <v>60.78</v>
+      </c>
+      <c r="H16">
+        <v>58.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
       <c r="B17">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>359</v>
+      </c>
+      <c r="E17" vm="15">
+        <v>45286</v>
+      </c>
+      <c r="F17">
+        <v>58.16</v>
+      </c>
+      <c r="G17">
+        <v>63.87</v>
+      </c>
+      <c r="H17">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
       <c r="B18">
         <v>45.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>360</v>
+      </c>
+      <c r="E18" vm="16">
+        <v>45287</v>
+      </c>
+      <c r="F18">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="G18">
+        <v>58.16</v>
+      </c>
+      <c r="H18">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
       <c r="B19">
         <v>52.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <v>361</v>
+      </c>
+      <c r="E19" vm="17">
+        <v>45288</v>
+      </c>
+      <c r="F19">
+        <v>70.03</v>
+      </c>
+      <c r="G19">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="H19">
+        <v>61.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
       <c r="B20">
         <v>46.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>362</v>
+      </c>
+      <c r="E20" vm="18">
+        <v>45289</v>
+      </c>
+      <c r="F20">
+        <v>61.85</v>
+      </c>
+      <c r="G20">
+        <v>70.03</v>
+      </c>
+      <c r="H20">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
       <c r="B21">
         <v>43.59</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <v>363</v>
+      </c>
+      <c r="E21" vm="19">
+        <v>45290</v>
+      </c>
+      <c r="F21">
+        <v>64.44</v>
+      </c>
+      <c r="G21">
+        <v>61.85</v>
+      </c>
+      <c r="H21">
+        <v>65.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
       <c r="B22">
         <v>58.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <v>364</v>
+      </c>
+      <c r="E22" vm="20">
+        <v>45291</v>
+      </c>
+      <c r="F22">
+        <v>65.92</v>
+      </c>
+      <c r="G22">
+        <v>64.44</v>
+      </c>
+      <c r="H22">
+        <v>60.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
       <c r="B23">
         <v>49.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <v>365</v>
+      </c>
+      <c r="E23" vm="21">
+        <v>45292</v>
+      </c>
+      <c r="F23">
+        <v>60.49</v>
+      </c>
+      <c r="G23">
+        <v>65.92</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
@@ -682,7 +1538,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
@@ -690,175 +1546,617 @@
         <v>43.66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
       <c r="B26">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D26" t="str" cm="1">
+        <f t="array" ref="D26:J46">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>Date</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Sales_Lag_1</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Sales_Lead_1</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Sales_Lag_2</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Sales_Lead_2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
       <c r="B27">
         <v>51.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="F27">
+        <v>52.48</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H27">
+        <v>49.34</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J27">
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
       <c r="B28">
         <v>45.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="F28">
+        <v>49.34</v>
+      </c>
+      <c r="G28">
+        <v>52.48</v>
+      </c>
+      <c r="H28">
+        <v>53.31</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J28">
+        <v>57.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
       <c r="B29">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="F29">
+        <v>53.31</v>
+      </c>
+      <c r="G29">
+        <v>49.34</v>
+      </c>
+      <c r="H29">
+        <v>57.72</v>
+      </c>
+      <c r="I29">
+        <v>52.48</v>
+      </c>
+      <c r="J29">
+        <v>48.97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
       <c r="B30">
         <v>47.96</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="F30">
+        <v>57.72</v>
+      </c>
+      <c r="G30">
+        <v>53.31</v>
+      </c>
+      <c r="H30">
+        <v>48.97</v>
+      </c>
+      <c r="I30">
+        <v>49.34</v>
+      </c>
+      <c r="J30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
       <c r="B31">
         <v>49.53</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="F31">
+        <v>48.97</v>
+      </c>
+      <c r="G31">
+        <v>57.72</v>
+      </c>
+      <c r="H31">
+        <v>49</v>
+      </c>
+      <c r="I31">
+        <v>53.31</v>
+      </c>
+      <c r="J31">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
       <c r="B32">
         <v>48.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" vm="7">
+        <v>44932</v>
+      </c>
+      <c r="F32">
+        <v>49</v>
+      </c>
+      <c r="G32">
+        <v>48.97</v>
+      </c>
+      <c r="H32">
+        <v>58.1</v>
+      </c>
+      <c r="I32">
+        <v>57.72</v>
+      </c>
+      <c r="J32">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
       <c r="B33">
         <v>60.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" vm="8">
+        <v>44933</v>
+      </c>
+      <c r="F33">
+        <v>58.1</v>
+      </c>
+      <c r="G33">
+        <v>49</v>
+      </c>
+      <c r="H33">
+        <v>54.08</v>
+      </c>
+      <c r="I33">
+        <v>48.97</v>
+      </c>
+      <c r="J33">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
       <c r="B34">
         <v>51.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" vm="9">
+        <v>44934</v>
+      </c>
+      <c r="F34">
+        <v>54.08</v>
+      </c>
+      <c r="G34">
+        <v>58.1</v>
+      </c>
+      <c r="H34">
+        <v>47.93</v>
+      </c>
+      <c r="I34">
+        <v>49</v>
+      </c>
+      <c r="J34">
+        <v>53.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
       <c r="B35">
         <v>45.84</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" vm="10">
+        <v>44935</v>
+      </c>
+      <c r="F35">
+        <v>47.93</v>
+      </c>
+      <c r="G35">
+        <v>54.08</v>
+      </c>
+      <c r="H35">
+        <v>53.02</v>
+      </c>
+      <c r="I35">
+        <v>58.1</v>
+      </c>
+      <c r="J35">
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
       <c r="B36">
         <v>55.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" vm="11">
+        <v>44936</v>
+      </c>
+      <c r="F36">
+        <v>53.02</v>
+      </c>
+      <c r="G36">
+        <v>47.93</v>
+      </c>
+      <c r="H36">
+        <v>48.03</v>
+      </c>
+      <c r="I36">
+        <v>54.08</v>
+      </c>
+      <c r="J36">
+        <v>48.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
       <c r="B37">
         <v>45.09</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>356</v>
+      </c>
+      <c r="E37" vm="12">
+        <v>45283</v>
+      </c>
+      <c r="F37">
+        <v>62.1</v>
+      </c>
+      <c r="G37">
+        <v>57.14</v>
+      </c>
+      <c r="H37">
+        <v>60.78</v>
+      </c>
+      <c r="I37">
+        <v>62.03</v>
+      </c>
+      <c r="J37">
+        <v>63.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
       <c r="B38">
         <v>52.28</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>357</v>
+      </c>
+      <c r="E38" vm="13">
+        <v>45284</v>
+      </c>
+      <c r="F38">
+        <v>60.78</v>
+      </c>
+      <c r="G38">
+        <v>62.1</v>
+      </c>
+      <c r="H38">
+        <v>63.87</v>
+      </c>
+      <c r="I38">
+        <v>57.14</v>
+      </c>
+      <c r="J38">
+        <v>58.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
       <c r="B39">
         <v>41.47</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>358</v>
+      </c>
+      <c r="E39" vm="14">
+        <v>45285</v>
+      </c>
+      <c r="F39">
+        <v>63.87</v>
+      </c>
+      <c r="G39">
+        <v>60.78</v>
+      </c>
+      <c r="H39">
+        <v>58.16</v>
+      </c>
+      <c r="I39">
+        <v>62.1</v>
+      </c>
+      <c r="J39">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
       <c r="B40">
         <v>44.66</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>359</v>
+      </c>
+      <c r="E40" vm="15">
+        <v>45286</v>
+      </c>
+      <c r="F40">
+        <v>58.16</v>
+      </c>
+      <c r="G40">
+        <v>63.87</v>
+      </c>
+      <c r="H40">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="I40">
+        <v>60.78</v>
+      </c>
+      <c r="J40">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
       <c r="B41">
         <v>52.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>360</v>
+      </c>
+      <c r="E41" vm="16">
+        <v>45287</v>
+      </c>
+      <c r="F41">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="G41">
+        <v>58.16</v>
+      </c>
+      <c r="H41">
+        <v>70.03</v>
+      </c>
+      <c r="I41">
+        <v>63.87</v>
+      </c>
+      <c r="J41">
+        <v>61.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
       <c r="B42">
         <v>55.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>361</v>
+      </c>
+      <c r="E42" vm="17">
+        <v>45288</v>
+      </c>
+      <c r="F42">
+        <v>70.03</v>
+      </c>
+      <c r="G42">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="H42">
+        <v>61.85</v>
+      </c>
+      <c r="I42">
+        <v>58.16</v>
+      </c>
+      <c r="J42">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
       <c r="B43">
         <v>52.26</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>362</v>
+      </c>
+      <c r="E43" vm="18">
+        <v>45289</v>
+      </c>
+      <c r="F43">
+        <v>61.85</v>
+      </c>
+      <c r="G43">
+        <v>70.03</v>
+      </c>
+      <c r="H43">
+        <v>64.44</v>
+      </c>
+      <c r="I43">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="J43">
+        <v>65.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
       <c r="B44">
         <v>50.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>363</v>
+      </c>
+      <c r="E44" vm="19">
+        <v>45290</v>
+      </c>
+      <c r="F44">
+        <v>64.44</v>
+      </c>
+      <c r="G44">
+        <v>61.85</v>
+      </c>
+      <c r="H44">
+        <v>65.92</v>
+      </c>
+      <c r="I44">
+        <v>70.03</v>
+      </c>
+      <c r="J44">
+        <v>60.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
       <c r="B45">
         <v>49.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <v>364</v>
+      </c>
+      <c r="E45" vm="20">
+        <v>45291</v>
+      </c>
+      <c r="F45">
+        <v>65.92</v>
+      </c>
+      <c r="G45">
+        <v>64.44</v>
+      </c>
+      <c r="H45">
+        <v>60.49</v>
+      </c>
+      <c r="I45">
+        <v>61.85</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
       <c r="B46">
         <v>44.11</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <v>365</v>
+      </c>
+      <c r="E46" vm="21">
+        <v>45292</v>
+      </c>
+      <c r="F46">
+        <v>60.49</v>
+      </c>
+      <c r="G46">
+        <v>65.92</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I46">
+        <v>64.44</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
@@ -866,7 +2164,7 @@
         <v>47.94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44973</v>
       </c>
@@ -874,55 +2172,92 @@
         <v>49.27</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44974</v>
       </c>
       <c r="B49">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D49" t="str" cm="1">
+        <f t="array" ref="D49:E54">_xlfn._xlws.PY(3,0)</f>
+        <v>Sales</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Sales_Percentage_Change</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44975</v>
       </c>
       <c r="B50">
         <v>53.36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>52.48</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44976</v>
       </c>
       <c r="B51">
         <v>42.86</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <v>49.34</v>
+      </c>
+      <c r="E51">
+        <v>-5.98323170731706</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44977</v>
       </c>
       <c r="B52">
         <v>53.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <v>53.31</v>
+      </c>
+      <c r="E52">
+        <v>8.046209971625462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44978</v>
       </c>
       <c r="B53">
         <v>49.82</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <v>57.72</v>
+      </c>
+      <c r="E53">
+        <v>8.272369161508152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44979</v>
       </c>
       <c r="B54">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <v>48.97</v>
+      </c>
+      <c r="E54">
+        <v>-15.159390159390163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44980</v>
       </c>
@@ -930,7 +2265,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44981</v>
       </c>
@@ -938,7 +2273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44982</v>
       </c>
@@ -946,7 +2281,7 @@
         <v>56.54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44983</v>
       </c>
@@ -954,7 +2289,7 @@
         <v>47.72</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44984</v>
       </c>
@@ -962,7 +2297,7 @@
         <v>50.41</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44985</v>
       </c>
@@ -970,7 +2305,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44986</v>
       </c>
@@ -978,7 +2313,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44987</v>
       </c>
@@ -986,7 +2321,7 @@
         <v>49.66</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44988</v>
       </c>
@@ -994,7 +2329,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44989</v>
       </c>

--- a/8-leading-and-lagging-variables/8-leading-lagging-variables-solution.xlsx
+++ b/8-leading-and-lagging-variables/8-leading-lagging-variables-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\8-leading-and-lagging-variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20F43EA-625A-4B77-9515-BA8E8B0107F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98883027-7BFF-4A76-905E-9382E58CBB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="8-leading-lagging-variables" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
